--- a/Task Puntaje.xlsx
+++ b/Task Puntaje.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JALZ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JALZ\Documents\Workspace PROtalento\Minhub\Introdution_Javascript\Week7\Platiceros\CatalogoPlaticeros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD679323-279A-4FAF-A6E9-EB789F514E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4813FF-D8A6-4996-902A-94036DA292ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -497,7 +497,9 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -577,7 +579,9 @@
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
